--- a/lt1115-phono-mm-mc/measurements/RIAA-PreAmp-1.xlsx
+++ b/lt1115-phono-mm-mc/measurements/RIAA-PreAmp-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schenk/Documents/GitHub/electronic-projects/lt1115-phono-mm-mc/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D778B11-F537-7F43-8A19-BE58E40B3D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A84583-B87E-3C40-BF25-FB656E7F9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="780" windowWidth="28040" windowHeight="16420" activeTab="3" xr2:uid="{FC4D13F7-8D67-8143-BB8E-7AF9C7783FCE}"/>
+    <workbookView xWindow="760" yWindow="780" windowWidth="28040" windowHeight="16420" activeTab="2" xr2:uid="{FC4D13F7-8D67-8143-BB8E-7AF9C7783FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.04.07" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,13 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,12 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3738,26 +3738,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3766,8 +3746,1523 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$D$8:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>79.285192603936977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.180827846421863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.987800132898258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.78039552897333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.516551492494841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.244441130648312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.841892053809602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.512798740083369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.000665153795381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.573197930706399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.903691793648477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.343117321643604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.567075640424576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.909633529803955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.160227933142252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.506249019233479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.64126725823418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.831584878931608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.883091880368852</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.659385817488115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.29946695941635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.043650362227254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.769129872092094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.296356460190722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.765941357507884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.125720888248651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.840191853073406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.452058624197193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.897708365742844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.702653027535497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.352053833801683</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.826303193944455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.691525558686621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.393361938231912</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.984360453403632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.796211082967005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.587675553704194</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.205999132796244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.034674256180011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.717507146167875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.425516974762104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.285192603936984</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.142563953536261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.618980623350453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.360606735697608</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.115917607357375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.639099426792015</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.396364159586561</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.17074395139278</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.495529249510916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.271619771363845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.833812980402364</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.20844966846424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.917103903474576</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.419714883074789</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.678942615030245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.330359611097613</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.809628739408438</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.019457913734968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.709214590170014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.126050015345747</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.184050446622059</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.938592961464295</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.337352407082193</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.432078537396627</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48.028010815630886</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.531539141130239</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.60827546698382</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.149920758264258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.390258884358332</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.578268119893764</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.227751058737176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.895835154438494</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.657995398889661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.096568073073108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41.569136361065858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.595789416637118</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.146419058454896</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.708529481660037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5829-E049-B89C-1D883F353D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$D$8:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>79.285192603936977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.180827846421863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.987800132898258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.78039552897333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.516551492494841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.244441130648312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.841892053809602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.512798740083369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.000665153795381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.573197930706399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.903691793648477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.343117321643604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.567075640424576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.909633529803955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.160227933142252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.506249019233479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.64126725823418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.831584878931608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.883091880368852</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.659385817488115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.29946695941635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.043650362227254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.769129872092094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.296356460190722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.765941357507884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.125720888248651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.840191853073406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.452058624197193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.897708365742844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.702653027535497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.352053833801683</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.826303193944455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.691525558686621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.393361938231912</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.984360453403632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.796211082967005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.587675553704194</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.205999132796244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.034674256180011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.717507146167875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.425516974762104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.285192603936984</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.142563953536261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.618980623350453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.360606735697608</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.115917607357375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.639099426792015</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.396364159586561</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.17074395139278</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.495529249510916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.271619771363845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.833812980402364</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.20844966846424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.917103903474576</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.419714883074789</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.678942615030245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.330359611097613</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.809628739408438</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.019457913734968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.709214590170014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.126050015345747</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.184050446622059</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.938592961464295</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.337352407082193</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.432078537396627</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48.028010815630886</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.531539141130239</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.60827546698382</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.149920758264258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.390258884358332</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.578268119893764</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.227751058737176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.895835154438494</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.657995398889661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.096568073073108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41.569136361065858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.595789416637118</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.146419058454896</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.708529481660037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5829-E049-B89C-1D883F353D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$D$8:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>79.285192603936977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.180827846421863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.987800132898258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.78039552897333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.516551492494841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.244441130648312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.841892053809602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.512798740083369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.000665153795381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.573197930706399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.903691793648477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.343117321643604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.567075640424576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.909633529803955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.160227933142252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.506249019233479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.64126725823418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.831584878931608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.883091880368852</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.659385817488115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.29946695941635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.043650362227254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.769129872092094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.296356460190722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.765941357507884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.125720888248651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.840191853073406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.452058624197193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.897708365742844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.702653027535497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.352053833801683</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.826303193944455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.691525558686621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.393361938231912</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.984360453403632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.796211082967005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.587675553704194</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.205999132796244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.034674256180011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.717507146167875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.425516974762104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.285192603936984</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.142563953536261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.618980623350453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.360606735697608</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.115917607357375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.639099426792015</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.396364159586561</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.17074395139278</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.495529249510916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.271619771363845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.833812980402364</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.20844966846424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.917103903474576</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.419714883074789</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.678942615030245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.330359611097613</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.809628739408438</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.019457913734968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.709214590170014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.126050015345747</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.184050446622059</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.938592961464295</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.337352407082193</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.432078537396627</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48.028010815630886</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.531539141130239</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.60827546698382</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.149920758264258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.390258884358332</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.578268119893764</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.227751058737176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.895835154438494</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.657995398889661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.096568073073108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41.569136361065858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.595789416637118</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.146419058454896</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.708529481660037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5829-E049-B89C-1D883F353D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4287,7 +5782,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D735-2B4B-9BA4-10BDF5DB473C}"/>
+              <c16:uniqueId val="{00000006-5829-E049-B89C-1D883F353D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4430,40 +5925,12 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4538,510 +6005,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6800</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>21000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2025.09.07 V6'!$N$8:$N$86</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="79"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89DA-764E-80CE-7F0B71BC5451}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
@@ -6034,7 +6999,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-9.4258171356074172E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6046,7 +7011,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-1.029744001826316E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6055,7 +7020,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.1573472249367001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6067,34 +7032,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.4860379395614132E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.6250499853455835E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.752955113258281E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.9110876000169696E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.2767744721789995E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2.4995383114131187E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2.7884099832107268E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.3471677791311549E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -6103,46 +7068,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>4.7334665582141611E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1.0041492029429833E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1.0810069395404298E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1.1171563775498328E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>5.8392537581113402E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>6.2242135505243823E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6.3656211262994589E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.3260902786562667E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>7.0416620298274779E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>7.401695921323892E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>7.7587228366340355E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>8.1214495286374699E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -6154,10 +7119,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>9.2847573117467164E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>9.436057025880018E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -6172,16 +7137,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1.1406291380559708E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>1.2038657004197262E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1.3012571179935151E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -6223,16 +7188,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>2.9695378113828497E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>3.4536386010124431E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>3.6572220928157151E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -6241,31 +7206,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>4.6824316298057056E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>5.1289577150583909E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>5.340233576191622E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>5.5483167891523522E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>6.3984456949199853E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>7.2533529376457295E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>8.1138629329231549E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>8.5448994968828629E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0</c:v>
@@ -6277,6 +7242,2463 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBE0-344F-9BCF-1E75043207E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2080491968"/>
+        <c:axId val="2080888096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2080491968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="21000"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080888096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2080888096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080491968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PCB2 RIAA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> measurement</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$D$8:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>79.285192603936977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.180827846421863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.987800132898258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.78039552897333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.516551492494841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.244441130648312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.841892053809602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.512798740083369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.000665153795381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.573197930706399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.903691793648477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.343117321643604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.567075640424576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.909633529803955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.160227933142252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.506249019233479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.64126725823418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.831584878931608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.883091880368852</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.659385817488115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.29946695941635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.043650362227254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.769129872092094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.296356460190722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.765941357507884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.125720888248651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.840191853073406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.452058624197193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.897708365742844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.702653027535497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.352053833801683</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.826303193944455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.691525558686621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.393361938231912</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.984360453403632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.796211082967005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.587675553704194</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.205999132796244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.034674256180011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.717507146167875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.425516974762104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.285192603936984</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.142563953536261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.618980623350453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.360606735697608</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.115917607357375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.639099426792015</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.396364159586561</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.17074395139278</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.495529249510916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.271619771363845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.833812980402364</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.20844966846424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.917103903474576</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.419714883074789</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.678942615030245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.330359611097613</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.809628739408438</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.019457913734968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.709214590170014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.126050015345747</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.184050446622059</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.938592961464295</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.337352407082193</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.432078537396627</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48.028010815630886</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.531539141130239</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.60827546698382</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.149920758264258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.390258884358332</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.578268119893764</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.227751058737176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.895835154438494</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.657995398889661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.096568073073108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41.569136361065858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.595789416637118</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.146419058454896</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.708529481660037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1FD-1742-870A-0275B4D5D7AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$D$8:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>79.285192603936977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.180827846421863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.987800132898258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.78039552897333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.516551492494841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.244441130648312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.841892053809602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.512798740083369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.000665153795381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.573197930706399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.903691793648477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.343117321643604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.567075640424576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.909633529803955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.160227933142252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.506249019233479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.64126725823418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.831584878931608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.883091880368852</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.659385817488115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.29946695941635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.043650362227254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.769129872092094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.296356460190722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.765941357507884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.125720888248651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.840191853073406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.452058624197193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.897708365742844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.702653027535497</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.352053833801683</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.826303193944455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.691525558686621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.393361938231912</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.984360453403632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.796211082967005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.587675553704194</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.205999132796244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.034674256180011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.717507146167875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.425516974762104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.285192603936984</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.142563953536261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.618980623350453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.360606735697608</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.115917607357375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.639099426792015</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.396364159586561</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.17074395139278</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.495529249510916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.271619771363845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.833812980402364</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.20844966846424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.917103903474576</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.419714883074789</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.678942615030245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.330359611097613</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.809628739408438</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.019457913734968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.709214590170014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.126050015345747</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.184050446622059</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.938592961464295</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.337352407082193</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.432078537396627</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48.028010815630886</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.531539141130239</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.60827546698382</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.149920758264258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.390258884358332</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.578268119893764</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.227751058737176</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.895835154438494</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.657995398889661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.096568073073108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41.569136361065858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.595789416637118</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.146419058454896</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.708529481660037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1FD-1742-870A-0275B4D5D7AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$K$8:$K$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>79.294618421072585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.180827846421863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.987800132898258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.78039552897333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.526848932513104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.244441130648312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.841892053809602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.501225267834002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.000665153795381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.573197930706399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.903691793648477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.32825694224799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.550825140571121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.892103978671372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.141117057142083</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.506249019233479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.61849951351239</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.806589495817477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.855207780536745</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.659385817488115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.265995281625038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.043650362227254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.769129872092094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.249021794608581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.755899865478455</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.114910818853247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.829020289297908</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.446219370439081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.891484152192319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.696287406409198</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.338792931015121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.819261531914627</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.691525558686621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.385960242310588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.976601730566998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.796211082967005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.579554104175557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.205999132796244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60.034674256180011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59.717507146167875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.416232217450357</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.275756546911104</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59.142563953536261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58.618980623350453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.360606735697608</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.115917607357375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.627693135411455</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57.396364159586561</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.158705294388582</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.482516678330981</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.271619771363845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.833812980402364</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.20844966846424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.917103903474576</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.419714883074789</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.678942615030245</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.330359611097613</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.809628739408438</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.019457913734968</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.709214590170014</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.126050015345747</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.184050446622059</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.938592961464295</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.307657028968364</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.432078537396627</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>47.993474429620761</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.494966920202081</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.60827546698382</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.149920758264258</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.343434568060275</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.573139162178705</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.222410825160985</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.890286837649342</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.651596953194741</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42.096568073073108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41.561883008128213</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.587675553704194</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.137874158958013</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.708529481660037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1FD-1742-870A-0275B4D5D7AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="948742480"/>
+        <c:axId val="948744128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="948742480"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="21000"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948744128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="948744128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948742480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PCB2 RIAA deviation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$A$8:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2025.09.07 V6'!$N$8:$N$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>-1.4204205264505276E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.5645572431330947E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.0313820068079735E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5003286741014392E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4194555419649646E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.824767260917298E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5228565831094443E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0787107875660951E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0324750355111831E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7581199657243474E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7333031472913873E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0468533390957546E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0149172026279629E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2101210928060269E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7982835503190131E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4448417958444324E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1145459431473057E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5945196862672333E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1483790127821081E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2219272780508632E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1822339333711795E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5512524038516808E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7488646646570274E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.535850992661782E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1167536058904801E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1922734830469572E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0621661832847185E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.433386221246602E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3847471006778189E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4010592172492675E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.923455618806365E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2103039188852138E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5163443120293163E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.2069188238158564E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.3246397101216516E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0130626793584563E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4353970125903235E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8826147447682517E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.6645352591003757E-15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.7396491074419549E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.3407574009634882E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.5121304177422412E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.2989646115826758E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.0406080062059573E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.1440122400858694E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.3878865704570105E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.9611571801419174E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.9769188570503609E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.9307382548732246E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.8524704280204407E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.2806560355274765E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.5980734300016728E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.6077584073876778E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-7.9585909753626893E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-9.5003246715340772E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.10133914403454192</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-9.9085886177362248E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.11310540221670617</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.10776279628369334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.11583202057142472</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.1200447186109912</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.12293349460852099</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.11577469163935916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.1426650917485599</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.12508462807120146</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.14708387581598004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.14982044872740374</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.11857392112044174</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.15041104474803291</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.15978006034076486</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.19784624743464896</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.20375099090768956</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.20387708638831192</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.22617018558419133</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.2303768022664876</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.24658408882726945</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.26726534654429202</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.2764682402484766</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.28627405295980424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01EC-0046-BC7E-F0EA7054F681}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6483,46 +9905,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7594,522 +10976,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8245,7 +11111,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF0906D-C8FD-4342-8BD0-684C43DE7D98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8272,23 +11138,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948F0CAE-3E0A-174A-8D51-403B37C6D29D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8310,23 +11176,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8054CB-71F5-EB4B-8502-09F63888DF3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8348,23 +11214,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC2E016-A407-9F4C-90FA-03881A9A63C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8379,6 +11245,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3A5590-FA3C-C243-A458-7A8CAC8E9414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6624035-5E73-FE4C-9420-E7F276D6777E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8407,7 +11349,7 @@
         <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8486,7 +11428,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9596,10 +12538,10 @@
       <c r="H1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -13170,18 +16112,18 @@
         <v>175.4</v>
       </c>
       <c r="J72" s="15">
-        <f t="shared" ref="J72:J103" si="12">I72/B$4</f>
+        <f t="shared" ref="J72:J86" si="12">I72/B$4</f>
         <v>175.4</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" ref="K72:K103" si="13">20*LOG(J72/B$4)</f>
+        <f t="shared" ref="K72:K86" si="13">20*LOG(J72/B$4)</f>
         <v>44.88059178060044</v>
       </c>
       <c r="L72" s="17">
         <v>-11.388529509754148</v>
       </c>
       <c r="M72" s="17">
-        <f t="shared" ref="M72:M103" si="14">K72-(K$46-L$46)</f>
+        <f t="shared" ref="M72:M86" si="14">K72-(K$46-L$46)</f>
         <v>-11.538948993797987</v>
       </c>
       <c r="N72" s="17">
@@ -13969,8 +16911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCDB569-D028-3846-80EE-6F1E18C218BE}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13993,10 +16935,10 @@
       <c r="H1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -14008,10 +16950,10 @@
       <c r="H2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="27"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -14023,10 +16965,10 @@
       <c r="H3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -14044,7 +16986,7 @@
       <c r="H4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14127,29 +17069,32 @@
         <f>F8-E8</f>
         <v>-2.3630022400112694E-2</v>
       </c>
+      <c r="I8" s="15">
+        <v>9220</v>
+      </c>
       <c r="J8" s="15">
         <f t="shared" ref="J8:J71" si="0">I8/B$4</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="17" t="e">
+        <v>9220</v>
+      </c>
+      <c r="K8" s="17">
         <f t="shared" ref="K8:K71" si="1">20*LOG(J8/B$4)</f>
-        <v>#NUM!</v>
+        <v>79.294618421072585</v>
       </c>
       <c r="L8" s="17">
         <v>19.363129951115113</v>
       </c>
-      <c r="M8" s="17" t="e">
+      <c r="M8" s="17">
         <f t="shared" ref="M8:M71" si="2">K8-(K$46-L$46)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N8" s="17" t="e">
+        <v>19.348925745850607</v>
+      </c>
+      <c r="N8" s="17">
         <f>M8-L8</f>
-        <v>#NUM!</v>
+        <v>-1.4204205264505276E-2</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="1" t="e">
+      <c r="P8" s="1">
         <f>G8-N8</f>
-        <v>#NUM!</v>
+        <v>-9.4258171356074172E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -14178,29 +17123,32 @@
         <f t="shared" ref="G9:G72" si="6">F9-E9</f>
         <v>-5.5645572431330947E-3</v>
       </c>
+      <c r="I9" s="15">
+        <v>9100</v>
+      </c>
       <c r="J9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="17" t="e">
+        <v>9100</v>
+      </c>
+      <c r="K9" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>79.180827846421863</v>
       </c>
       <c r="L9" s="17">
         <v>19.240699728443019</v>
       </c>
-      <c r="M9" s="17" t="e">
+      <c r="M9" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N9" s="17" t="e">
+        <v>19.235135171199886</v>
+      </c>
+      <c r="N9" s="17">
         <f t="shared" ref="N9:N72" si="7">M9-L9</f>
-        <v>#NUM!</v>
+        <v>-5.5645572431330947E-3</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1" t="e">
+      <c r="P9" s="1">
         <f t="shared" ref="P9:P72" si="8">G9-N9</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -14229,29 +17177,32 @@
         <f t="shared" si="6"/>
         <v>-7.0313820068079735E-4</v>
       </c>
+      <c r="I10" s="15">
+        <v>8900</v>
+      </c>
       <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="17" t="e">
+        <v>8900</v>
+      </c>
+      <c r="K10" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>78.987800132898258</v>
       </c>
       <c r="L10" s="17">
         <v>19.042810595876961</v>
       </c>
-      <c r="M10" s="17" t="e">
+      <c r="M10" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N10" s="17" t="e">
+        <v>19.042107457676281</v>
+      </c>
+      <c r="N10" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-7.0313820068079735E-4</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1" t="e">
+      <c r="P10" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -14280,29 +17231,32 @@
         <f t="shared" si="6"/>
         <v>4.5003286741014392E-3</v>
       </c>
+      <c r="I11" s="15">
+        <v>8690</v>
+      </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="17" t="e">
+        <v>8690</v>
+      </c>
+      <c r="K11" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>78.78039552897333</v>
       </c>
       <c r="L11" s="17">
         <v>18.830202525077251</v>
       </c>
-      <c r="M11" s="17" t="e">
+      <c r="M11" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" s="17" t="e">
+        <v>18.834702853751352</v>
+      </c>
+      <c r="N11" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>4.5003286741014392E-3</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="1" t="e">
+      <c r="P11" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -14331,29 +17285,32 @@
         <f t="shared" si="6"/>
         <v>3.8971154013864862E-3</v>
       </c>
+      <c r="I12" s="15">
+        <v>8440</v>
+      </c>
       <c r="J12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="17" t="e">
+        <v>8440</v>
+      </c>
+      <c r="K12" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>78.526848932513104</v>
       </c>
       <c r="L12" s="17">
         <v>18.566961701871477</v>
       </c>
-      <c r="M12" s="17" t="e">
+      <c r="M12" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" s="17" t="e">
+        <v>18.581156257291127</v>
+      </c>
+      <c r="N12" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.4194555419649646E-2</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="1" t="e">
+      <c r="P12" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>-1.029744001826316E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -14382,29 +17339,32 @@
         <f t="shared" si="6"/>
         <v>7.824767260917298E-3</v>
       </c>
+      <c r="I13" s="15">
+        <v>8170</v>
+      </c>
       <c r="J13" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="17" t="e">
+        <v>8170</v>
+      </c>
+      <c r="K13" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>78.244441130648312</v>
       </c>
       <c r="L13" s="17">
         <v>18.290923688165417</v>
       </c>
-      <c r="M13" s="17" t="e">
+      <c r="M13" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N13" s="17" t="e">
+        <v>18.298748455426335</v>
+      </c>
+      <c r="N13" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>7.824767260917298E-3</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="1" t="e">
+      <c r="P13" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -14433,29 +17393,32 @@
         <f t="shared" si="6"/>
         <v>1.5228565831094443E-2</v>
       </c>
+      <c r="I14" s="15">
+        <v>7800</v>
+      </c>
       <c r="J14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="17" t="e">
+        <v>7800</v>
+      </c>
+      <c r="K14" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>77.841892053809602</v>
       </c>
       <c r="L14" s="17">
         <v>17.88097081275653</v>
       </c>
-      <c r="M14" s="17" t="e">
+      <c r="M14" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" s="17" t="e">
+        <v>17.896199378587625</v>
+      </c>
+      <c r="N14" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.5228565831094443E-2</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="e">
+      <c r="P14" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -14484,29 +17447,32 @@
         <f t="shared" si="6"/>
         <v>2.2360580125027951E-2</v>
       </c>
+      <c r="I15" s="15">
+        <v>7500</v>
+      </c>
       <c r="J15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="17" t="e">
+        <v>7500</v>
+      </c>
+      <c r="K15" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>77.501225267834002</v>
       </c>
       <c r="L15" s="17">
         <v>17.544745484736364</v>
       </c>
-      <c r="M15" s="17" t="e">
+      <c r="M15" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" s="17" t="e">
+        <v>17.555532592612025</v>
+      </c>
+      <c r="N15" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.0787107875660951E-2</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="e">
+      <c r="P15" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.1573472249367001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -14535,29 +17501,32 @@
         <f t="shared" si="6"/>
         <v>2.0324750355111831E-2</v>
       </c>
+      <c r="I16" s="15">
+        <v>7080</v>
+      </c>
       <c r="J16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="17" t="e">
+        <v>7080</v>
+      </c>
+      <c r="K16" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>77.000665153795381</v>
       </c>
       <c r="L16" s="17">
         <v>17.034647728218292</v>
       </c>
-      <c r="M16" s="17" t="e">
+      <c r="M16" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" s="17" t="e">
+        <v>17.054972478573404</v>
+      </c>
+      <c r="N16" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>2.0324750355111831E-2</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="1" t="e">
+      <c r="P16" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -14586,29 +17555,32 @@
         <f t="shared" si="6"/>
         <v>1.7581199657243474E-2</v>
       </c>
+      <c r="I17" s="15">
+        <v>6740</v>
+      </c>
       <c r="J17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="17" t="e">
+        <v>6740</v>
+      </c>
+      <c r="K17" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>76.573197930706399</v>
       </c>
       <c r="L17" s="17">
         <v>16.609924055827179</v>
       </c>
-      <c r="M17" s="17" t="e">
+      <c r="M17" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" s="17" t="e">
+        <v>16.627505255484422</v>
+      </c>
+      <c r="N17" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.7581199657243474E-2</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="1" t="e">
+      <c r="P17" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -14637,29 +17609,32 @@
         <f t="shared" si="6"/>
         <v>1.7333031472913873E-2</v>
       </c>
+      <c r="I18" s="15">
+        <v>6240</v>
+      </c>
       <c r="J18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="17" t="e">
+        <v>6240</v>
+      </c>
+      <c r="K18" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>75.903691793648477</v>
       </c>
       <c r="L18" s="17">
         <v>15.940666086953586</v>
       </c>
-      <c r="M18" s="17" t="e">
+      <c r="M18" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" s="17" t="e">
+        <v>15.9579991184265</v>
+      </c>
+      <c r="N18" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.7333031472913873E-2</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="1" t="e">
+      <c r="P18" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -14688,29 +17663,32 @@
         <f t="shared" si="6"/>
         <v>2.5328912786571678E-2</v>
       </c>
+      <c r="I19" s="15">
+        <v>5840</v>
+      </c>
       <c r="J19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="17" t="e">
+        <v>5840</v>
+      </c>
+      <c r="K19" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>75.32825694224799</v>
       </c>
       <c r="L19" s="17">
         <v>15.372095733635055</v>
       </c>
-      <c r="M19" s="17" t="e">
+      <c r="M19" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N19" s="17" t="e">
+        <v>15.382564267026012</v>
+      </c>
+      <c r="N19" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.0468533390957546E-2</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="1" t="e">
+      <c r="P19" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.4860379395614132E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -14739,29 +17717,32 @@
         <f t="shared" si="6"/>
         <v>2.6399671879735465E-2</v>
       </c>
+      <c r="I20" s="15">
+        <v>5340</v>
+      </c>
       <c r="J20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="17" t="e">
+        <v>5340</v>
+      </c>
+      <c r="K20" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>74.550825140571121</v>
       </c>
       <c r="L20" s="17">
         <v>14.594983293322864</v>
       </c>
-      <c r="M20" s="17" t="e">
+      <c r="M20" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N20" s="17" t="e">
+        <v>14.605132465349143</v>
+      </c>
+      <c r="N20" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.0149172026279629E-2</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="1" t="e">
+      <c r="P20" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.6250499853455835E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -14790,29 +17771,32 @@
         <f t="shared" si="6"/>
         <v>2.9630762060643079E-2</v>
       </c>
+      <c r="I21" s="15">
+        <v>4950</v>
+      </c>
       <c r="J21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="17" t="e">
+        <v>4950</v>
+      </c>
+      <c r="K21" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>73.892103978671372</v>
       </c>
       <c r="L21" s="17">
         <v>13.934310092521335</v>
       </c>
-      <c r="M21" s="17" t="e">
+      <c r="M21" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N21" s="17" t="e">
+        <v>13.946411303449395</v>
+      </c>
+      <c r="N21" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.2101210928060269E-2</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="1" t="e">
+      <c r="P21" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.752955113258281E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -14841,29 +17825,32 @@
         <f t="shared" si="6"/>
         <v>3.7093711503359827E-2</v>
       </c>
+      <c r="I22" s="15">
+        <v>4540</v>
+      </c>
       <c r="J22" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="17" t="e">
+        <v>4540</v>
+      </c>
+      <c r="K22" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>73.141117057142083</v>
       </c>
       <c r="L22" s="17">
         <v>13.177441546416915</v>
       </c>
-      <c r="M22" s="17" t="e">
+      <c r="M22" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N22" s="17" t="e">
+        <v>13.195424381920105</v>
+      </c>
+      <c r="N22" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.7982835503190131E-2</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="1" t="e">
+      <c r="P22" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.9110876000169696E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -14892,29 +17879,32 @@
         <f t="shared" si="6"/>
         <v>2.4448417958444324E-2</v>
       </c>
+      <c r="I23" s="15">
+        <v>4220</v>
+      </c>
       <c r="J23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="17" t="e">
+        <v>4220</v>
+      </c>
+      <c r="K23" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>72.506249019233479</v>
       </c>
       <c r="L23" s="17">
         <v>12.536107926053058</v>
       </c>
-      <c r="M23" s="17" t="e">
+      <c r="M23" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N23" s="17" t="e">
+        <v>12.560556344011502</v>
+      </c>
+      <c r="N23" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>2.4448417958444324E-2</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="1" t="e">
+      <c r="P23" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -14943,29 +17933,32 @@
         <f t="shared" si="6"/>
         <v>4.3913204153263052E-2</v>
       </c>
+      <c r="I24" s="15">
+        <v>3810</v>
+      </c>
       <c r="J24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="17" t="e">
+        <v>3810</v>
+      </c>
+      <c r="K24" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>71.61849951351239</v>
       </c>
       <c r="L24" s="17">
         <v>11.65166137885894</v>
       </c>
-      <c r="M24" s="17" t="e">
+      <c r="M24" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N24" s="17" t="e">
+        <v>11.672806838290413</v>
+      </c>
+      <c r="N24" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>2.1145459431473057E-2</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="1" t="e">
+      <c r="P24" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>2.2767744721789995E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -14994,29 +17987,32 @@
         <f t="shared" si="6"/>
         <v>3.458990280039842E-2</v>
       </c>
+      <c r="I25" s="15">
+        <v>3470</v>
+      </c>
       <c r="J25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="17" t="e">
+        <v>3470</v>
+      </c>
+      <c r="K25" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>70.806589495817477</v>
       </c>
       <c r="L25" s="17">
         <v>10.851302300909232</v>
       </c>
-      <c r="M25" s="17" t="e">
+      <c r="M25" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N25" s="17" t="e">
+        <v>10.860896820595499</v>
+      </c>
+      <c r="N25" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>9.5945196862672333E-3</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="1" t="e">
+      <c r="P25" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>2.4995383114131187E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -15045,29 +18041,32 @@
         <f t="shared" si="6"/>
         <v>3.9367889959928348E-2</v>
       </c>
+      <c r="I26" s="15">
+        <v>3110</v>
+      </c>
       <c r="J26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="17" t="e">
+        <v>3110</v>
+      </c>
+      <c r="K26" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>69.855207780536745</v>
       </c>
       <c r="L26" s="17">
         <v>9.8980313151869463</v>
       </c>
-      <c r="M26" s="17" t="e">
+      <c r="M26" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N26" s="17" t="e">
+        <v>9.9095151053147674</v>
+      </c>
+      <c r="N26" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.1483790127821081E-2</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="1" t="e">
+      <c r="P26" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>2.7884099832107268E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -15096,29 +18095,32 @@
         <f t="shared" si="6"/>
         <v>4.2219272780508632E-2</v>
       </c>
+      <c r="I27" s="15">
+        <v>2710</v>
+      </c>
       <c r="J27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="17" t="e">
+        <v>2710</v>
+      </c>
+      <c r="K27" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>68.659385817488115</v>
       </c>
       <c r="L27" s="17">
         <v>8.671473869485629</v>
       </c>
-      <c r="M27" s="17" t="e">
+      <c r="M27" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N27" s="17" t="e">
+        <v>8.7136931422661377</v>
+      </c>
+      <c r="N27" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>4.2219272780508632E-2</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="1" t="e">
+      <c r="P27" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -15147,29 +18149,32 @@
         <f t="shared" si="6"/>
         <v>4.5294017125023345E-2</v>
       </c>
+      <c r="I28" s="15">
+        <v>2590</v>
+      </c>
       <c r="J28" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="17" t="e">
+        <v>2590</v>
+      </c>
+      <c r="K28" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>68.265995281625038</v>
       </c>
       <c r="L28" s="17">
         <v>8.3084802670693492</v>
       </c>
-      <c r="M28" s="17" t="e">
+      <c r="M28" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" s="17" t="e">
+        <v>8.320302606403061</v>
+      </c>
+      <c r="N28" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.1822339333711795E-2</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="1" t="e">
+      <c r="P28" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>3.3471677791311549E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -15198,29 +18203,32 @@
         <f t="shared" si="6"/>
         <v>5.5512524038516808E-2</v>
       </c>
+      <c r="I29" s="15">
+        <v>2250</v>
+      </c>
       <c r="J29" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="17" t="e">
+        <v>2250</v>
+      </c>
+      <c r="K29" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>67.043650362227254</v>
       </c>
       <c r="L29" s="17">
         <v>7.0424451629667599</v>
       </c>
-      <c r="M29" s="17" t="e">
+      <c r="M29" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" s="17" t="e">
+        <v>7.0979576870052767</v>
+      </c>
+      <c r="N29" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>5.5512524038516808E-2</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="1" t="e">
+      <c r="P29" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -15249,29 +18257,32 @@
         <f t="shared" si="6"/>
         <v>5.7488646646570274E-2</v>
       </c>
+      <c r="I30" s="15">
+        <v>2180</v>
+      </c>
       <c r="J30" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="17" t="e">
+        <v>2180</v>
+      </c>
+      <c r="K30" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>66.769129872092094</v>
       </c>
       <c r="L30" s="17">
         <v>6.7659485502235466</v>
       </c>
-      <c r="M30" s="17" t="e">
+      <c r="M30" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N30" s="17" t="e">
+        <v>6.8234371968701168</v>
+      </c>
+      <c r="N30" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>5.7488646646570274E-2</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="1" t="e">
+      <c r="P30" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -15300,29 +18311,32 @@
         <f t="shared" si="6"/>
         <v>8.2693175508759431E-2</v>
       </c>
+      <c r="I31" s="15">
+        <v>1830</v>
+      </c>
       <c r="J31" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="17" t="e">
+        <v>1830</v>
+      </c>
+      <c r="K31" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>65.249021794608581</v>
       </c>
       <c r="L31" s="17">
         <v>5.2679706094599856</v>
       </c>
-      <c r="M31" s="17" t="e">
+      <c r="M31" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N31" s="17" t="e">
+        <v>5.3033291193866035</v>
+      </c>
+      <c r="N31" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>3.535850992661782E-2</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="1" t="e">
+      <c r="P31" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>4.7334665582141611E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -15351,29 +18365,32 @@
         <f t="shared" si="6"/>
         <v>1.7158245635320313E-2</v>
       </c>
+      <c r="I32" s="15">
+        <v>1729</v>
+      </c>
       <c r="J32" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="17" t="e">
+        <v>1729</v>
+      </c>
+      <c r="K32" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>64.755899865478455</v>
       </c>
       <c r="L32" s="17">
         <v>4.8030904366505869</v>
       </c>
-      <c r="M32" s="17" t="e">
+      <c r="M32" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" s="17" t="e">
+        <v>4.8102071902564774</v>
+      </c>
+      <c r="N32" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>7.1167536058904801E-3</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="1" t="e">
+      <c r="P32" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.0041492029429833E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -15402,29 +18419,32 @@
         <f t="shared" si="6"/>
         <v>2.2732804225873871E-2</v>
       </c>
+      <c r="I33" s="15">
+        <v>1606</v>
+      </c>
       <c r="J33" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="17" t="e">
+        <v>1606</v>
+      </c>
+      <c r="K33" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>64.114910818853247</v>
       </c>
       <c r="L33" s="17">
         <v>4.1572954088007998</v>
       </c>
-      <c r="M33" s="17" t="e">
+      <c r="M33" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N33" s="17" t="e">
+        <v>4.1692181436312694</v>
+      </c>
+      <c r="N33" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.1922734830469572E-2</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="P33" s="1" t="e">
+      <c r="P33" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.0810069395404298E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -15453,29 +18473,32 @@
         <f t="shared" si="6"/>
         <v>2.1793225608345512E-2</v>
       </c>
+      <c r="I34" s="15">
+        <v>1554</v>
+      </c>
       <c r="J34" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="17" t="e">
+        <v>1554</v>
+      </c>
+      <c r="K34" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>63.829020289297908</v>
       </c>
       <c r="L34" s="17">
         <v>3.8727059522430838</v>
       </c>
-      <c r="M34" s="17" t="e">
+      <c r="M34" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" s="17" t="e">
+        <v>3.883327614075931</v>
+      </c>
+      <c r="N34" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.0621661832847185E-2</v>
       </c>
       <c r="O34" s="1"/>
-      <c r="P34" s="1" t="e">
+      <c r="P34" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.1171563775498328E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -15504,29 +18527,32 @@
         <f t="shared" si="6"/>
         <v>2.017311597057736E-2</v>
       </c>
+      <c r="I35" s="15">
+        <v>1487</v>
+      </c>
       <c r="J35" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="17" t="e">
+        <v>1487</v>
+      </c>
+      <c r="K35" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>63.446219370439081</v>
       </c>
       <c r="L35" s="17">
         <v>3.4861928330046381</v>
       </c>
-      <c r="M35" s="17" t="e">
+      <c r="M35" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N35" s="17" t="e">
+        <v>3.5005266952171041</v>
+      </c>
+      <c r="N35" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.433386221246602E-2</v>
       </c>
       <c r="O35" s="1"/>
-      <c r="P35" s="1" t="e">
+      <c r="P35" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>5.8392537581113402E-3</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -15555,29 +18581,32 @@
         <f t="shared" si="6"/>
         <v>2.0071684557302572E-2</v>
       </c>
+      <c r="I36" s="15">
+        <v>1395</v>
+      </c>
       <c r="J36" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="17" t="e">
+        <v>1395</v>
+      </c>
+      <c r="K36" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>62.891484152192319</v>
       </c>
       <c r="L36" s="17">
         <v>2.931944005963564</v>
       </c>
-      <c r="M36" s="17" t="e">
+      <c r="M36" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N36" s="17" t="e">
+        <v>2.9457914769703422</v>
+      </c>
+      <c r="N36" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.3847471006778189E-2</v>
       </c>
       <c r="O36" s="1"/>
-      <c r="P36" s="1" t="e">
+      <c r="P36" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>6.2242135505243823E-3</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -15606,29 +18635,32 @@
         <f t="shared" si="6"/>
         <v>2.0376213298792134E-2</v>
       </c>
+      <c r="I37" s="15">
+        <v>1364</v>
+      </c>
       <c r="J37" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="17" t="e">
+        <v>1364</v>
+      </c>
+      <c r="K37" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>62.696287406409198</v>
       </c>
       <c r="L37" s="17">
         <v>2.7365841390147279</v>
       </c>
-      <c r="M37" s="17" t="e">
+      <c r="M37" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N37" s="17" t="e">
+        <v>2.7505947311872205</v>
+      </c>
+      <c r="N37" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.4010592172492675E-2</v>
       </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="1" t="e">
+      <c r="P37" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>6.3656211262994589E-3</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -15657,29 +18689,32 @@
         <f t="shared" si="6"/>
         <v>2.3184358405369032E-2</v>
       </c>
+      <c r="I38" s="15">
+        <v>1309</v>
+      </c>
       <c r="J38" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="17" t="e">
+        <v>1309</v>
+      </c>
+      <c r="K38" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>62.338792931015121</v>
       </c>
       <c r="L38" s="17">
         <v>2.3831768001743372</v>
       </c>
-      <c r="M38" s="17" t="e">
+      <c r="M38" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N38" s="17" t="e">
+        <v>2.3931002557931436</v>
+      </c>
+      <c r="N38" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>9.923455618806365E-3</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="1" t="e">
+      <c r="P38" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.3260902786562667E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -15708,29 +18743,32 @@
         <f t="shared" si="6"/>
         <v>1.9144701218679616E-2</v>
       </c>
+      <c r="I39" s="15">
+        <v>1233</v>
+      </c>
       <c r="J39" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="17" t="e">
+        <v>1233</v>
+      </c>
+      <c r="K39" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>61.819261531914627</v>
       </c>
       <c r="L39" s="17">
         <v>1.8614658175037977</v>
       </c>
-      <c r="M39" s="17" t="e">
+      <c r="M39" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N39" s="17" t="e">
+        <v>1.8735688566926498</v>
+      </c>
+      <c r="N39" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.2103039188852138E-2</v>
       </c>
       <c r="O39" s="1"/>
-      <c r="P39" s="1" t="e">
+      <c r="P39" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>7.0416620298274779E-3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -15759,29 +18797,32 @@
         <f t="shared" si="6"/>
         <v>1.5163443120293163E-2</v>
       </c>
+      <c r="I40" s="15">
+        <v>1215</v>
+      </c>
       <c r="J40" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="17" t="e">
+        <v>1215</v>
+      </c>
+      <c r="K40" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>61.691525558686621</v>
       </c>
       <c r="L40" s="17">
         <v>1.7306694403443506</v>
       </c>
-      <c r="M40" s="17" t="e">
+      <c r="M40" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N40" s="17" t="e">
+        <v>1.7458328834646437</v>
+      </c>
+      <c r="N40" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.5163443120293163E-2</v>
       </c>
       <c r="O40" s="1"/>
-      <c r="P40" s="1" t="e">
+      <c r="P40" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -15810,29 +18851,32 @@
         <f t="shared" si="6"/>
         <v>1.5608614745139748E-2</v>
       </c>
+      <c r="I41" s="15">
+        <v>1173</v>
+      </c>
       <c r="J41" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="17" t="e">
+        <v>1173</v>
+      </c>
+      <c r="K41" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>61.385960242310588</v>
       </c>
       <c r="L41" s="17">
         <v>1.4320606482647953</v>
       </c>
-      <c r="M41" s="17" t="e">
+      <c r="M41" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N41" s="17" t="e">
+        <v>1.4402675670886111</v>
+      </c>
+      <c r="N41" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>8.2069188238158564E-3</v>
       </c>
       <c r="O41" s="1"/>
-      <c r="P41" s="1" t="e">
+      <c r="P41" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>7.401695921323892E-3</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -15861,29 +18905,32 @@
         <f t="shared" si="6"/>
         <v>1.7083362546755687E-2</v>
       </c>
+      <c r="I42" s="15">
+        <v>1119</v>
+      </c>
       <c r="J42" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="17" t="e">
+        <v>1119</v>
+      </c>
+      <c r="K42" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>60.976601730566998</v>
       </c>
       <c r="L42" s="17">
         <v>1.0215844156348988</v>
       </c>
-      <c r="M42" s="17" t="e">
+      <c r="M42" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N42" s="17" t="e">
+        <v>1.0309090553450204</v>
+      </c>
+      <c r="N42" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>9.3246397101216516E-3</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="1" t="e">
+      <c r="P42" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>7.7587228366340355E-3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -15912,29 +18959,32 @@
         <f t="shared" si="6"/>
         <v>1.0130626793584563E-2</v>
       </c>
+      <c r="I43" s="15">
+        <v>1096</v>
+      </c>
       <c r="J43" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="17" t="e">
+        <v>1096</v>
+      </c>
+      <c r="K43" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>60.796211082967005</v>
       </c>
       <c r="L43" s="17">
         <v>0.84038778095144351</v>
       </c>
-      <c r="M43" s="17" t="e">
+      <c r="M43" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N43" s="17" t="e">
+        <v>0.85051840774502807</v>
+      </c>
+      <c r="N43" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.0130626793584563E-2</v>
       </c>
       <c r="O43" s="1"/>
-      <c r="P43" s="1" t="e">
+      <c r="P43" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -15963,29 +19013,32 @@
         <f t="shared" si="6"/>
         <v>1.0556846541227793E-2</v>
       </c>
+      <c r="I44" s="15">
+        <v>1069</v>
+      </c>
       <c r="J44" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="17" t="e">
+        <v>1069</v>
+      </c>
+      <c r="K44" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>60.579554104175557</v>
       </c>
       <c r="L44" s="17">
         <v>0.63142603194098945</v>
       </c>
-      <c r="M44" s="17" t="e">
+      <c r="M44" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N44" s="17" t="e">
+        <v>0.63386142895357978</v>
+      </c>
+      <c r="N44" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>2.4353970125903235E-3</v>
       </c>
       <c r="O44" s="1"/>
-      <c r="P44" s="1" t="e">
+      <c r="P44" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>8.1214495286374699E-3</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -16014,29 +19067,32 @@
         <f t="shared" si="6"/>
         <v>1.8826147447682517E-3</v>
       </c>
+      <c r="I45" s="15">
+        <v>1024</v>
+      </c>
       <c r="J45" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="17" t="e">
+        <v>1024</v>
+      </c>
+      <c r="K45" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>60.205999132796244</v>
       </c>
       <c r="L45" s="17">
         <v>0.25842384282949815</v>
       </c>
-      <c r="M45" s="17" t="e">
+      <c r="M45" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N45" s="17" t="e">
+        <v>0.2603064575742664</v>
+      </c>
+      <c r="N45" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>1.8826147447682517E-3</v>
       </c>
       <c r="O45" s="1"/>
-      <c r="P45" s="1" t="e">
+      <c r="P45" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -16065,29 +19121,32 @@
         <f t="shared" si="6"/>
         <v>-2.6645352591003757E-15</v>
       </c>
+      <c r="I46" s="15">
+        <v>1004</v>
+      </c>
       <c r="J46" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="17" t="e">
+        <v>1004</v>
+      </c>
+      <c r="K46" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>60.034674256180011</v>
       </c>
       <c r="L46" s="17">
         <v>8.8981580958036766E-2</v>
       </c>
-      <c r="M46" s="17" t="e">
+      <c r="M46" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N46" s="17" t="e">
+        <v>8.8981580958034101E-2</v>
+      </c>
+      <c r="N46" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-2.6645352591003757E-15</v>
       </c>
       <c r="O46" s="1"/>
-      <c r="P46" s="1" t="e">
+      <c r="P46" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -16116,29 +19175,32 @@
         <f t="shared" si="6"/>
         <v>-2.7396491074419549E-3</v>
       </c>
+      <c r="I47" s="15">
+        <v>968</v>
+      </c>
       <c r="J47" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="17" t="e">
+        <v>968</v>
+      </c>
+      <c r="K47" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>59.717507146167875</v>
       </c>
       <c r="L47" s="17">
         <v>-0.22544587994665977</v>
       </c>
-      <c r="M47" s="17" t="e">
+      <c r="M47" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N47" s="17" t="e">
+        <v>-0.22818552905410172</v>
+      </c>
+      <c r="N47" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-2.7396491074419549E-3</v>
       </c>
       <c r="O47" s="1"/>
-      <c r="P47" s="1" t="e">
+      <c r="P47" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -16167,29 +19229,32 @@
         <f t="shared" si="6"/>
         <v>-4.1228166978881653E-3</v>
       </c>
+      <c r="I48" s="15">
+        <v>935</v>
+      </c>
       <c r="J48" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="17" t="e">
+        <v>935</v>
+      </c>
+      <c r="K48" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>59.416232217450357</v>
       </c>
       <c r="L48" s="17">
         <v>-0.5160528837619851</v>
       </c>
-      <c r="M48" s="17" t="e">
+      <c r="M48" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N48" s="17" t="e">
+        <v>-0.52946045777161999</v>
+      </c>
+      <c r="N48" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-1.3407574009634882E-2</v>
       </c>
       <c r="O48" s="1"/>
-      <c r="P48" s="1" t="e">
+      <c r="P48" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>9.2847573117467164E-3</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -16218,29 +19283,32 @@
         <f t="shared" si="6"/>
         <v>-5.6852471515423941E-3</v>
       </c>
+      <c r="I49" s="15">
+        <v>920</v>
+      </c>
       <c r="J49" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="17" t="e">
+        <v>920</v>
+      </c>
+      <c r="K49" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>59.275756546911104</v>
       </c>
       <c r="L49" s="17">
         <v>-0.65481482413345049</v>
       </c>
-      <c r="M49" s="17" t="e">
+      <c r="M49" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N49" s="17" t="e">
+        <v>-0.6699361283108729</v>
+      </c>
+      <c r="N49" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-1.5121304177422412E-2</v>
       </c>
       <c r="O49" s="1"/>
-      <c r="P49" s="1" t="e">
+      <c r="P49" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>9.436057025880018E-3</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -16269,29 +19337,32 @@
         <f t="shared" si="6"/>
         <v>-1.2989646115826758E-2</v>
       </c>
+      <c r="I50" s="15">
+        <v>906</v>
+      </c>
       <c r="J50" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="17" t="e">
+        <v>906</v>
+      </c>
+      <c r="K50" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>59.142563953536261</v>
       </c>
       <c r="L50" s="17">
         <v>-0.79013907556988983</v>
       </c>
-      <c r="M50" s="17" t="e">
+      <c r="M50" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N50" s="17" t="e">
+        <v>-0.80312872168571658</v>
+      </c>
+      <c r="N50" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-1.2989646115826758E-2</v>
       </c>
       <c r="O50" s="1"/>
-      <c r="P50" s="1" t="e">
+      <c r="P50" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -16320,29 +19391,32 @@
         <f t="shared" si="6"/>
         <v>-2.0406080062059573E-2</v>
       </c>
+      <c r="I51" s="15">
+        <v>853</v>
+      </c>
       <c r="J51" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="17" t="e">
+        <v>853</v>
+      </c>
+      <c r="K51" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>58.618980623350453</v>
       </c>
       <c r="L51" s="17">
         <v>-1.3063059718094649</v>
       </c>
-      <c r="M51" s="17" t="e">
+      <c r="M51" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N51" s="17" t="e">
+        <v>-1.3267120518715245</v>
+      </c>
+      <c r="N51" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-2.0406080062059573E-2</v>
       </c>
       <c r="O51" s="1"/>
-      <c r="P51" s="1" t="e">
+      <c r="P51" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -16371,29 +19445,32 @@
         <f t="shared" si="6"/>
         <v>-3.1440122400858694E-2</v>
       </c>
+      <c r="I52" s="15">
+        <v>828</v>
+      </c>
       <c r="J52" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="17" t="e">
+        <v>828</v>
+      </c>
+      <c r="K52" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>58.360606735697608</v>
       </c>
       <c r="L52" s="17">
         <v>-1.5536458171235101</v>
       </c>
-      <c r="M52" s="17" t="e">
+      <c r="M52" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N52" s="17" t="e">
+        <v>-1.5850859395243688</v>
+      </c>
+      <c r="N52" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-3.1440122400858694E-2</v>
       </c>
       <c r="O52" s="1"/>
-      <c r="P52" s="1" t="e">
+      <c r="P52" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -16422,29 +19499,32 @@
         <f t="shared" si="6"/>
         <v>-3.3878865704570105E-2</v>
       </c>
+      <c r="I53" s="15">
+        <v>805</v>
+      </c>
       <c r="J53" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="17" t="e">
+        <v>805</v>
+      </c>
+      <c r="K53" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>58.115917607357375</v>
       </c>
       <c r="L53" s="17">
         <v>-1.7958962021600324</v>
       </c>
-      <c r="M53" s="17" t="e">
+      <c r="M53" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N53" s="17" t="e">
+        <v>-1.8297750678646025</v>
+      </c>
+      <c r="N53" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-3.3878865704570105E-2</v>
       </c>
       <c r="O53" s="1"/>
-      <c r="P53" s="1" t="e">
+      <c r="P53" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -16473,29 +19553,32 @@
         <f t="shared" si="6"/>
         <v>-3.8205280420859467E-2</v>
       </c>
+      <c r="I54" s="15">
+        <v>761</v>
+      </c>
       <c r="J54" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="17" t="e">
+        <v>761</v>
+      </c>
+      <c r="K54" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>57.627693135411455</v>
       </c>
       <c r="L54" s="17">
         <v>-2.2683879680091028</v>
       </c>
-      <c r="M54" s="17" t="e">
+      <c r="M54" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N54" s="17" t="e">
+        <v>-2.317999539810522</v>
+      </c>
+      <c r="N54" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-4.9611571801419174E-2</v>
       </c>
       <c r="O54" s="1"/>
-      <c r="P54" s="1" t="e">
+      <c r="P54" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.1406291380559708E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -16524,29 +19607,32 @@
         <f t="shared" si="6"/>
         <v>-4.9769188570503609E-2</v>
       </c>
+      <c r="I55" s="15">
+        <v>741</v>
+      </c>
       <c r="J55" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="17" t="e">
+        <v>741</v>
+      </c>
+      <c r="K55" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>57.396364159586561</v>
       </c>
       <c r="L55" s="17">
         <v>-2.4995593270649126</v>
       </c>
-      <c r="M55" s="17" t="e">
+      <c r="M55" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N55" s="17" t="e">
+        <v>-2.5493285156354162</v>
+      </c>
+      <c r="N55" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-4.9769188570503609E-2</v>
       </c>
       <c r="O55" s="1"/>
-      <c r="P55" s="1" t="e">
+      <c r="P55" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -16575,29 +19661,32 @@
         <f t="shared" si="6"/>
         <v>-4.7268725544534984E-2</v>
       </c>
+      <c r="I56" s="15">
+        <v>721</v>
+      </c>
       <c r="J56" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="17" t="e">
+        <v>721</v>
+      </c>
+      <c r="K56" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>57.158705294388582</v>
       </c>
       <c r="L56" s="17">
         <v>-2.7276799982846627</v>
       </c>
-      <c r="M56" s="17" t="e">
+      <c r="M56" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N56" s="17" t="e">
+        <v>-2.7869873808333949</v>
+      </c>
+      <c r="N56" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-5.9307382548732246E-2</v>
       </c>
       <c r="O56" s="1"/>
-      <c r="P56" s="1" t="e">
+      <c r="P56" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.2038657004197262E-2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -16626,29 +19715,32 @@
         <f t="shared" si="6"/>
         <v>-5.5512133100269256E-2</v>
       </c>
+      <c r="I57" s="15">
+        <v>667</v>
+      </c>
       <c r="J57" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="17" t="e">
+        <v>667</v>
+      </c>
+      <c r="K57" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>56.482516678330981</v>
       </c>
       <c r="L57" s="17">
         <v>-3.3946512926107917</v>
       </c>
-      <c r="M57" s="17" t="e">
+      <c r="M57" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N57" s="17" t="e">
+        <v>-3.4631759968909961</v>
+      </c>
+      <c r="N57" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-6.8524704280204407E-2</v>
       </c>
       <c r="O57" s="1"/>
-      <c r="P57" s="1" t="e">
+      <c r="P57" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>1.3012571179935151E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -16677,29 +19769,32 @@
         <f t="shared" si="6"/>
         <v>-6.2806560355274765E-2</v>
       </c>
+      <c r="I58" s="15">
+        <v>651</v>
+      </c>
       <c r="J58" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="17" t="e">
+        <v>651</v>
+      </c>
+      <c r="K58" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>56.271619771363845</v>
       </c>
       <c r="L58" s="17">
         <v>-3.6112663435028574</v>
       </c>
-      <c r="M58" s="17" t="e">
+      <c r="M58" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N58" s="17" t="e">
+        <v>-3.6740729038581321</v>
+      </c>
+      <c r="N58" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-6.2806560355274765E-2</v>
       </c>
       <c r="O58" s="1"/>
-      <c r="P58" s="1" t="e">
+      <c r="P58" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -16728,29 +19823,32 @@
         <f t="shared" si="6"/>
         <v>-7.5980734300016728E-2</v>
       </c>
+      <c r="I59" s="15">
+        <v>619</v>
+      </c>
       <c r="J59" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="17" t="e">
+        <v>619</v>
+      </c>
+      <c r="K59" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>55.833812980402364</v>
       </c>
       <c r="L59" s="17">
         <v>-4.0358989605195967</v>
       </c>
-      <c r="M59" s="17" t="e">
+      <c r="M59" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N59" s="17" t="e">
+        <v>-4.1118796948196135</v>
+      </c>
+      <c r="N59" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-7.5980734300016728E-2</v>
       </c>
       <c r="O59" s="1"/>
-      <c r="P59" s="1" t="e">
+      <c r="P59" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -16779,29 +19877,32 @@
         <f t="shared" si="6"/>
         <v>-8.6077584073876778E-2</v>
       </c>
+      <c r="I60" s="15">
+        <v>576</v>
+      </c>
       <c r="J60" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="17" t="e">
+        <v>576</v>
+      </c>
+      <c r="K60" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>55.20844966846424</v>
       </c>
       <c r="L60" s="17">
         <v>-4.6511654226838601</v>
       </c>
-      <c r="M60" s="17" t="e">
+      <c r="M60" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N60" s="17" t="e">
+        <v>-4.7372430067577369</v>
+      </c>
+      <c r="N60" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-8.6077584073876778E-2</v>
       </c>
       <c r="O60" s="1"/>
-      <c r="P60" s="1" t="e">
+      <c r="P60" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -16830,29 +19931,32 @@
         <f t="shared" si="6"/>
         <v>-7.9585909753626893E-2</v>
       </c>
+      <c r="I61" s="15">
+        <v>557</v>
+      </c>
       <c r="J61" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="17" t="e">
+        <v>557</v>
+      </c>
+      <c r="K61" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>54.917103903474576</v>
       </c>
       <c r="L61" s="17">
         <v>-4.9490028619937743</v>
       </c>
-      <c r="M61" s="17" t="e">
+      <c r="M61" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N61" s="17" t="e">
+        <v>-5.0285887717474012</v>
+      </c>
+      <c r="N61" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-7.9585909753626893E-2</v>
       </c>
       <c r="O61" s="1"/>
-      <c r="P61" s="1" t="e">
+      <c r="P61" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -16881,29 +19985,32 @@
         <f t="shared" si="6"/>
         <v>-9.5003246715340772E-2</v>
       </c>
+      <c r="I62" s="15">
+        <v>526</v>
+      </c>
       <c r="J62" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="17" t="e">
+        <v>526</v>
+      </c>
+      <c r="K62" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>54.419714883074789</v>
       </c>
       <c r="L62" s="17">
         <v>-5.4309745454318472</v>
       </c>
-      <c r="M62" s="17" t="e">
+      <c r="M62" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N62" s="17" t="e">
+        <v>-5.525977792147188</v>
+      </c>
+      <c r="N62" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-9.5003246715340772E-2</v>
       </c>
       <c r="O62" s="1"/>
-      <c r="P62" s="1" t="e">
+      <c r="P62" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -16932,29 +20039,32 @@
         <f t="shared" si="6"/>
         <v>-0.10133914403454192</v>
       </c>
+      <c r="I63" s="15">
+        <v>483</v>
+      </c>
       <c r="J63" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="17" t="e">
+        <v>483</v>
+      </c>
+      <c r="K63" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>53.678942615030245</v>
       </c>
       <c r="L63" s="17">
         <v>-6.1654109161571906</v>
       </c>
-      <c r="M63" s="17" t="e">
+      <c r="M63" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N63" s="17" t="e">
+        <v>-6.2667500601917325</v>
+      </c>
+      <c r="N63" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.10133914403454192</v>
       </c>
       <c r="O63" s="1"/>
-      <c r="P63" s="1" t="e">
+      <c r="P63" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -16983,29 +20093,32 @@
         <f t="shared" si="6"/>
         <v>-9.9085886177362248E-2</v>
       </c>
+      <c r="I64" s="15">
+        <v>464</v>
+      </c>
       <c r="J64" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="17" t="e">
+        <v>464</v>
+      </c>
+      <c r="K64" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>53.330359611097613</v>
       </c>
       <c r="L64" s="17">
         <v>-6.5162471779470019</v>
       </c>
-      <c r="M64" s="17" t="e">
+      <c r="M64" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N64" s="17" t="e">
+        <v>-6.6153330641243642</v>
+      </c>
+      <c r="N64" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-9.9085886177362248E-2</v>
       </c>
       <c r="O64" s="1"/>
-      <c r="P64" s="1" t="e">
+      <c r="P64" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -17034,29 +20147,32 @@
         <f t="shared" si="6"/>
         <v>-0.11310540221670617</v>
       </c>
+      <c r="I65" s="15">
+        <v>437</v>
+      </c>
       <c r="J65" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="17" t="e">
+        <v>437</v>
+      </c>
+      <c r="K65" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>52.809628739408438</v>
       </c>
       <c r="L65" s="17">
         <v>-7.0229585335968325</v>
       </c>
-      <c r="M65" s="17" t="e">
+      <c r="M65" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N65" s="17" t="e">
+        <v>-7.1360639358135387</v>
+      </c>
+      <c r="N65" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.11310540221670617</v>
       </c>
       <c r="O65" s="1"/>
-      <c r="P65" s="1" t="e">
+      <c r="P65" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -17085,29 +20201,32 @@
         <f t="shared" si="6"/>
         <v>-0.10776279628369334</v>
       </c>
+      <c r="I66" s="15">
+        <v>399</v>
+      </c>
       <c r="J66" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="17" t="e">
+        <v>399</v>
+      </c>
+      <c r="K66" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>52.019457913734968</v>
       </c>
       <c r="L66" s="17">
         <v>-7.8184719652033161</v>
       </c>
-      <c r="M66" s="17" t="e">
+      <c r="M66" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N66" s="17" t="e">
+        <v>-7.9262347614870095</v>
+      </c>
+      <c r="N66" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.10776279628369334</v>
       </c>
       <c r="O66" s="1"/>
-      <c r="P66" s="1" t="e">
+      <c r="P66" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -17136,29 +20255,32 @@
         <f t="shared" si="6"/>
         <v>-0.11583202057142472</v>
       </c>
+      <c r="I67" s="15">
+        <v>385</v>
+      </c>
       <c r="J67" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="17" t="e">
+        <v>385</v>
+      </c>
+      <c r="K67" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>51.709214590170014</v>
       </c>
       <c r="L67" s="17">
         <v>-8.1206460644805389</v>
       </c>
-      <c r="M67" s="17" t="e">
+      <c r="M67" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N67" s="17" t="e">
+        <v>-8.2364780850519637</v>
+      </c>
+      <c r="N67" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.11583202057142472</v>
       </c>
       <c r="O67" s="1"/>
-      <c r="P67" s="1" t="e">
+      <c r="P67" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -17187,29 +20309,32 @@
         <f t="shared" si="6"/>
         <v>-0.1200447186109912</v>
       </c>
+      <c r="I68" s="15">
+        <v>360</v>
+      </c>
       <c r="J68" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="17" t="e">
+        <v>360</v>
+      </c>
+      <c r="K68" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>51.126050015345747</v>
       </c>
       <c r="L68" s="17">
         <v>-8.6995979412652389</v>
       </c>
-      <c r="M68" s="17" t="e">
+      <c r="M68" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N68" s="17" t="e">
+        <v>-8.8196426598762301</v>
+      </c>
+      <c r="N68" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.1200447186109912</v>
       </c>
       <c r="O68" s="1"/>
-      <c r="P68" s="1" t="e">
+      <c r="P68" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -17238,29 +20363,32 @@
         <f t="shared" si="6"/>
         <v>-0.12293349460852099</v>
       </c>
+      <c r="I69" s="15">
+        <v>323</v>
+      </c>
       <c r="J69" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="17" t="e">
+        <v>323</v>
+      </c>
+      <c r="K69" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>50.184050446622059</v>
       </c>
       <c r="L69" s="17">
         <v>-9.6387087339913968</v>
       </c>
-      <c r="M69" s="17" t="e">
+      <c r="M69" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N69" s="17" t="e">
+        <v>-9.7616422285999178</v>
+      </c>
+      <c r="N69" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.12293349460852099</v>
       </c>
       <c r="O69" s="1"/>
-      <c r="P69" s="1" t="e">
+      <c r="P69" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -17289,29 +20417,32 @@
         <f t="shared" si="6"/>
         <v>-0.11577469163935916</v>
       </c>
+      <c r="I70" s="15">
+        <v>314</v>
+      </c>
       <c r="J70" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="17" t="e">
+        <v>314</v>
+      </c>
+      <c r="K70" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>49.938592961464295</v>
       </c>
       <c r="L70" s="17">
         <v>-9.8913250221183233</v>
       </c>
-      <c r="M70" s="17" t="e">
+      <c r="M70" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N70" s="17" t="e">
+        <v>-10.007099713757682</v>
+      </c>
+      <c r="N70" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.11577469163935916</v>
       </c>
       <c r="O70" s="1"/>
-      <c r="P70" s="1" t="e">
+      <c r="P70" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -17340,29 +20471,32 @@
         <f t="shared" si="6"/>
         <v>-0.11296971363473141</v>
       </c>
+      <c r="I71" s="15">
+        <v>292</v>
+      </c>
       <c r="J71" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="17" t="e">
+        <v>292</v>
+      </c>
+      <c r="K71" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>49.307657028968364</v>
       </c>
       <c r="L71" s="17">
         <v>-10.495370554505053</v>
       </c>
-      <c r="M71" s="17" t="e">
+      <c r="M71" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N71" s="17" t="e">
+        <v>-10.638035646253613</v>
+      </c>
+      <c r="N71" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.1426650917485599</v>
       </c>
       <c r="O71" s="1"/>
-      <c r="P71" s="1" t="e">
+      <c r="P71" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>2.9695378113828497E-2</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -17391,29 +20525,32 @@
         <f t="shared" si="6"/>
         <v>-0.12508462807120146</v>
       </c>
+      <c r="I72" s="15">
+        <v>264</v>
+      </c>
       <c r="J72" s="15">
         <f t="shared" ref="J72:J86" si="9">I72/B$4</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="17" t="e">
+        <v>264</v>
+      </c>
+      <c r="K72" s="17">
         <f t="shared" ref="K72:K86" si="10">20*LOG(J72/B$4)</f>
-        <v>#NUM!</v>
+        <v>48.432078537396627</v>
       </c>
       <c r="L72" s="17">
         <v>-11.388529509754148</v>
       </c>
-      <c r="M72" s="17" t="e">
+      <c r="M72" s="17">
         <f t="shared" ref="M72:M86" si="11">K72-(K$46-L$46)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N72" s="17" t="e">
+        <v>-11.51361413782535</v>
+      </c>
+      <c r="N72" s="17">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>-0.12508462807120146</v>
       </c>
       <c r="O72" s="1"/>
-      <c r="P72" s="1" t="e">
+      <c r="P72" s="1">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -17442,29 +20579,32 @@
         <f t="shared" ref="G73:G86" si="15">F73-E73</f>
         <v>-0.11254748980585561</v>
       </c>
+      <c r="I73" s="15">
+        <v>251</v>
+      </c>
       <c r="J73" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="17" t="e">
+        <v>251</v>
+      </c>
+      <c r="K73" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>47.993474429620761</v>
       </c>
       <c r="L73" s="17">
         <v>-11.805134369785236</v>
       </c>
-      <c r="M73" s="17" t="e">
+      <c r="M73" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N73" s="17" t="e">
+        <v>-11.952218245601216</v>
+      </c>
+      <c r="N73" s="17">
         <f t="shared" ref="N73:N86" si="16">M73-L73</f>
-        <v>#NUM!</v>
+        <v>-0.14708387581598004</v>
       </c>
       <c r="O73" s="1"/>
-      <c r="P73" s="1" t="e">
+      <c r="P73" s="1">
         <f t="shared" ref="P73:P86" si="17">G73-N73</f>
-        <v>#NUM!</v>
+        <v>3.4536386010124431E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -17493,29 +20633,32 @@
         <f t="shared" si="15"/>
         <v>-0.11324822779924659</v>
       </c>
+      <c r="I74" s="15">
+        <v>237</v>
+      </c>
       <c r="J74" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="17" t="e">
+        <v>237</v>
+      </c>
+      <c r="K74" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>47.494966920202081</v>
       </c>
       <c r="L74" s="17">
         <v>-12.300905306292492</v>
       </c>
-      <c r="M74" s="17" t="e">
+      <c r="M74" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N74" s="17" t="e">
+        <v>-12.450725755019896</v>
+      </c>
+      <c r="N74" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.14982044872740374</v>
       </c>
       <c r="O74" s="1"/>
-      <c r="P74" s="1" t="e">
+      <c r="P74" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>3.6572220928157151E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -17544,29 +20687,32 @@
         <f t="shared" si="15"/>
         <v>-0.11857392112044174</v>
       </c>
+      <c r="I75" s="15">
+        <v>214</v>
+      </c>
       <c r="J75" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="17" t="e">
+        <v>214</v>
+      </c>
+      <c r="K75" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>46.60827546698382</v>
       </c>
       <c r="L75" s="17">
         <v>-13.218843287117716</v>
       </c>
-      <c r="M75" s="17" t="e">
+      <c r="M75" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N75" s="17" t="e">
+        <v>-13.337417208238158</v>
+      </c>
+      <c r="N75" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.11857392112044174</v>
       </c>
       <c r="O75" s="1"/>
-      <c r="P75" s="1" t="e">
+      <c r="P75" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -17595,29 +20741,32 @@
         <f t="shared" si="15"/>
         <v>-0.15041104474803291</v>
       </c>
+      <c r="I76" s="15">
+        <v>203</v>
+      </c>
       <c r="J76" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="17" t="e">
+        <v>203</v>
+      </c>
+      <c r="K76" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>46.149920758264258</v>
       </c>
       <c r="L76" s="17">
         <v>-13.645360872209686</v>
       </c>
-      <c r="M76" s="17" t="e">
+      <c r="M76" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N76" s="17" t="e">
+        <v>-13.795771916957719</v>
+      </c>
+      <c r="N76" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.15041104474803291</v>
       </c>
       <c r="O76" s="1"/>
-      <c r="P76" s="1" t="e">
+      <c r="P76" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -17646,29 +20795,32 @@
         <f t="shared" si="15"/>
         <v>-0.11295574404270781</v>
       </c>
+      <c r="I77" s="15">
+        <v>185</v>
+      </c>
       <c r="J77" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="17" t="e">
+        <v>185</v>
+      </c>
+      <c r="K77" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>45.343434568060275</v>
       </c>
       <c r="L77" s="17">
         <v>-14.442478046820938</v>
       </c>
-      <c r="M77" s="17" t="e">
+      <c r="M77" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N77" s="17" t="e">
+        <v>-14.602258107161703</v>
+      </c>
+      <c r="N77" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.15978006034076486</v>
       </c>
       <c r="O77" s="1"/>
-      <c r="P77" s="1" t="e">
+      <c r="P77" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>4.6824316298057056E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -17697,29 +20849,32 @@
         <f t="shared" si="15"/>
         <v>-0.19271728971959057</v>
       </c>
+      <c r="I78" s="15">
+        <v>169.3</v>
+      </c>
       <c r="J78" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="17" t="e">
+        <v>169.3</v>
+      </c>
+      <c r="K78" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>44.573139162178705</v>
       </c>
       <c r="L78" s="17">
         <v>-15.174707265608623</v>
       </c>
-      <c r="M78" s="17" t="e">
+      <c r="M78" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N78" s="17" t="e">
+        <v>-15.372553513043272</v>
+      </c>
+      <c r="N78" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.19784624743464896</v>
       </c>
       <c r="O78" s="1"/>
-      <c r="P78" s="1" t="e">
+      <c r="P78" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>5.1289577150583909E-3</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -17748,29 +20903,32 @@
         <f t="shared" si="15"/>
         <v>-0.19841075733149793</v>
       </c>
+      <c r="I79" s="15">
+        <v>162.6</v>
+      </c>
       <c r="J79" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="17" t="e">
+        <v>162.6</v>
+      </c>
+      <c r="K79" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>44.222410825160985</v>
       </c>
       <c r="L79" s="17">
         <v>-15.519530859153303</v>
       </c>
-      <c r="M79" s="17" t="e">
+      <c r="M79" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N79" s="17" t="e">
+        <v>-15.723281850060992</v>
+      </c>
+      <c r="N79" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.20375099090768956</v>
       </c>
       <c r="O79" s="1"/>
-      <c r="P79" s="1" t="e">
+      <c r="P79" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>5.340233576191622E-3</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -17799,29 +20957,32 @@
         <f t="shared" si="15"/>
         <v>-0.19832876959915957</v>
       </c>
+      <c r="I80" s="15">
+        <v>156.5</v>
+      </c>
       <c r="J80" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="17" t="e">
+        <v>156.5</v>
+      </c>
+      <c r="K80" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>43.890286837649342</v>
       </c>
       <c r="L80" s="17">
         <v>-15.851528751184324</v>
       </c>
-      <c r="M80" s="17" t="e">
+      <c r="M80" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N80" s="17" t="e">
+        <v>-16.055405837572636</v>
+      </c>
+      <c r="N80" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.20387708638831192</v>
       </c>
       <c r="O80" s="1"/>
-      <c r="P80" s="1" t="e">
+      <c r="P80" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>5.5483167891523522E-3</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -17850,29 +21011,32 @@
         <f t="shared" si="15"/>
         <v>-0.21977173988927134</v>
       </c>
+      <c r="I81" s="15">
+        <v>135.69999999999999</v>
+      </c>
       <c r="J81" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="17" t="e">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="K81" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>42.651596953194741</v>
       </c>
       <c r="L81" s="17">
         <v>-17.067925536443045</v>
       </c>
-      <c r="M81" s="17" t="e">
+      <c r="M81" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N81" s="17" t="e">
+        <v>-17.294095722027237</v>
+      </c>
+      <c r="N81" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.22617018558419133</v>
       </c>
       <c r="O81" s="1"/>
-      <c r="P81" s="1" t="e">
+      <c r="P81" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>6.3984456949199853E-3</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -17901,29 +21065,32 @@
         <f t="shared" si="15"/>
         <v>-0.2303768022664876</v>
       </c>
+      <c r="I82" s="15">
+        <v>127.3</v>
+      </c>
       <c r="J82" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="17" t="e">
+        <v>127.3</v>
+      </c>
+      <c r="K82" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>42.096568073073108</v>
       </c>
       <c r="L82" s="17">
         <v>-17.618747799882382</v>
       </c>
-      <c r="M82" s="17" t="e">
+      <c r="M82" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N82" s="17" t="e">
+        <v>-17.849124602148869</v>
+      </c>
+      <c r="N82" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.2303768022664876</v>
       </c>
       <c r="O82" s="1"/>
-      <c r="P82" s="1" t="e">
+      <c r="P82" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -17952,29 +21119,32 @@
         <f t="shared" si="15"/>
         <v>-0.23933073588962372</v>
       </c>
+      <c r="I83" s="15">
+        <v>119.7</v>
+      </c>
       <c r="J83" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="17" t="e">
+        <v>119.7</v>
+      </c>
+      <c r="K83" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>41.561883008128213</v>
       </c>
       <c r="L83" s="17">
         <v>-18.137225578266495</v>
       </c>
-      <c r="M83" s="17" t="e">
+      <c r="M83" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N83" s="17" t="e">
+        <v>-18.383809667093765</v>
+      </c>
+      <c r="N83" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.24658408882726945</v>
       </c>
       <c r="O83" s="1"/>
-      <c r="P83" s="1" t="e">
+      <c r="P83" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>7.2533529376457295E-3</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -18003,29 +21173,32 @@
         <f t="shared" si="15"/>
         <v>-0.25915148361136886</v>
       </c>
+      <c r="I84" s="15">
+        <v>107</v>
+      </c>
       <c r="J84" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="17" t="e">
+        <v>107</v>
+      </c>
+      <c r="K84" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>40.587675553704194</v>
       </c>
       <c r="L84" s="17">
         <v>-19.090751774973491</v>
       </c>
-      <c r="M84" s="17" t="e">
+      <c r="M84" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N84" s="17" t="e">
+        <v>-19.358017121517783</v>
+      </c>
+      <c r="N84" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.26726534654429202</v>
       </c>
       <c r="O84" s="1"/>
-      <c r="P84" s="1" t="e">
+      <c r="P84" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>8.1138629329231549E-3</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -18054,29 +21227,32 @@
         <f t="shared" si="15"/>
         <v>-0.26792334075159374</v>
       </c>
+      <c r="I85" s="15">
+        <v>101.6</v>
+      </c>
       <c r="J85" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="17" t="e">
+        <v>101.6</v>
+      </c>
+      <c r="K85" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>40.137874158958013</v>
       </c>
       <c r="L85" s="17">
         <v>-19.531350276015488</v>
       </c>
-      <c r="M85" s="17" t="e">
+      <c r="M85" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N85" s="17" t="e">
+        <v>-19.807818516263964</v>
+      </c>
+      <c r="N85" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.2764682402484766</v>
       </c>
       <c r="O85" s="1"/>
-      <c r="P85" s="1" t="e">
+      <c r="P85" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>8.5448994968828629E-3</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -18105,29 +21281,32 @@
         <f t="shared" si="15"/>
         <v>-0.28627405295980424</v>
       </c>
+      <c r="I86" s="15">
+        <v>96.7</v>
+      </c>
       <c r="J86" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="17" t="e">
+        <v>96.7</v>
+      </c>
+      <c r="K86" s="17">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>39.708529481660037</v>
       </c>
       <c r="L86" s="17">
         <v>-19.950889140602136</v>
       </c>
-      <c r="M86" s="17" t="e">
+      <c r="M86" s="17">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N86" s="17" t="e">
+        <v>-20.23716319356194</v>
+      </c>
+      <c r="N86" s="17">
         <f t="shared" si="16"/>
-        <v>#NUM!</v>
+        <v>-0.28627405295980424</v>
       </c>
       <c r="O86" s="1"/>
-      <c r="P86" s="1" t="e">
+      <c r="P86" s="1">
         <f t="shared" si="17"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18151,7 +21330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D905C075-BD47-9C43-8B00-B2F29039672A}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -18672,33 +21851,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="E3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
